--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED4182F-EA51-4AAB-B717-58EB829C80AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB99A827-D4F8-47E7-9FA8-008F2912A297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -468,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D9EFBD-12C5-4D30-8EE6-418D0444DAEA}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,77 +735,115 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="9">
+        <v>44959</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="9">
+        <v>44960</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9">
+        <v>44961</v>
+      </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9">
+        <v>44962</v>
+      </c>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9">
+        <v>44963</v>
+      </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9">
+        <v>44964</v>
+      </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="9">
+        <v>44965</v>
+      </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="9">
+        <v>44966</v>
+      </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="9">
+        <v>44967</v>
+      </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="9">
+        <v>44968</v>
+      </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9">
+        <v>44969</v>
+      </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9">
+        <v>44970</v>
+      </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="9">
+        <v>44971</v>
+      </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9">
+        <v>44972</v>
+      </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="9">
+        <v>44973</v>
+      </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
     </row>
@@ -815,11 +853,11 @@
       </c>
       <c r="B18" s="6">
         <f>SUM(B2:B17)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" s="7">
         <f>SUM(C2:C17)</f>
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB99A827-D4F8-47E7-9FA8-008F2912A297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70903564-9234-4E58-894D-4573B65F1FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,8 +760,12 @@
       <c r="A5" s="9">
         <v>44961</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -853,11 +857,11 @@
       </c>
       <c r="B18" s="6">
         <f>SUM(B2:B17)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" s="7">
         <f>SUM(C2:C17)</f>
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70903564-9234-4E58-894D-4573B65F1FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -148,7 +147,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +185,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -221,23 +220,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -273,26 +255,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,21 +430,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -490,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44942</v>
       </c>
@@ -501,7 +466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44943</v>
       </c>
@@ -512,7 +477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44944</v>
       </c>
@@ -523,7 +488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44945</v>
       </c>
@@ -534,7 +499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44946</v>
       </c>
@@ -545,7 +510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44947</v>
       </c>
@@ -556,7 +521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44948</v>
       </c>
@@ -567,7 +532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44949</v>
       </c>
@@ -578,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44950</v>
       </c>
@@ -589,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44951</v>
       </c>
@@ -600,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44952</v>
       </c>
@@ -611,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44953</v>
       </c>
@@ -622,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44954</v>
       </c>
@@ -633,7 +598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44955</v>
       </c>
@@ -644,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44956</v>
       </c>
@@ -655,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44957</v>
       </c>
@@ -666,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
@@ -679,19 +644,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
@@ -700,19 +665,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D9EFBD-12C5-4D30-8EE6-418D0444DAEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -734,7 +699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -745,7 +710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -756,7 +721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -767,91 +732,95 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44962</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44969</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
@@ -864,7 +833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -36,8 +36,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -125,6 +133,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -747,14 +758,18 @@
       <c r="A7" s="9">
         <v>44963</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -826,11 +841,11 @@
       </c>
       <c r="B18" s="6">
         <f>SUM(B2:B17)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="7">
         <f>SUM(C2:C17)</f>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -840,5 +855,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF4345C-001E-4D2D-B6F3-FAA61D953E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -158,7 +159,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,7 +197,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -231,6 +232,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -266,9 +284,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -441,21 +476,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -466,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44942</v>
       </c>
@@ -477,7 +512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44943</v>
       </c>
@@ -488,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44944</v>
       </c>
@@ -499,7 +534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44945</v>
       </c>
@@ -510,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44946</v>
       </c>
@@ -521,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44947</v>
       </c>
@@ -532,7 +567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44948</v>
       </c>
@@ -543,7 +578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44949</v>
       </c>
@@ -554,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44950</v>
       </c>
@@ -565,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44951</v>
       </c>
@@ -576,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44952</v>
       </c>
@@ -587,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44953</v>
       </c>
@@ -598,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44954</v>
       </c>
@@ -609,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44955</v>
       </c>
@@ -620,7 +655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44956</v>
       </c>
@@ -631,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44957</v>
       </c>
@@ -642,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
@@ -655,19 +690,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
@@ -676,19 +711,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -699,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -710,7 +745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -721,7 +756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -732,7 +767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -743,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44962</v>
       </c>
@@ -754,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -765,90 +800,104 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44969</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="6">
         <f>SUM(B2:B17)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="7">
         <f>SUM(C2:C17)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF4345C-001E-4D2D-B6F3-FAA61D953E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -159,7 +158,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -197,7 +196,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -232,23 +231,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -284,26 +266,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,21 +441,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -501,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44942</v>
       </c>
@@ -512,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44943</v>
       </c>
@@ -523,7 +488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44944</v>
       </c>
@@ -534,7 +499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44945</v>
       </c>
@@ -545,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44946</v>
       </c>
@@ -556,7 +521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44947</v>
       </c>
@@ -567,7 +532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44948</v>
       </c>
@@ -578,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44949</v>
       </c>
@@ -589,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44950</v>
       </c>
@@ -600,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44951</v>
       </c>
@@ -611,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44952</v>
       </c>
@@ -622,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44953</v>
       </c>
@@ -633,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44954</v>
       </c>
@@ -644,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44955</v>
       </c>
@@ -655,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44956</v>
       </c>
@@ -666,7 +631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44957</v>
       </c>
@@ -677,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
@@ -690,19 +655,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
@@ -711,19 +676,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -734,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -745,7 +710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -756,7 +721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -767,7 +732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -778,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44962</v>
       </c>
@@ -789,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -800,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -811,7 +776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -822,7 +787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -833,74 +798,132 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
       <c r="C11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44969</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>44974</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>44975</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>44976</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>44977</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>44978</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>44979</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>44980</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>44981</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="6">
-        <f>SUM(B2:B17)</f>
-        <v>12</v>
-      </c>
-      <c r="C18" s="7">
-        <f>SUM(C2:C17)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
+      <c r="B26" s="6">
+        <f>SUM(B2:B25)</f>
+        <v>14</v>
+      </c>
+      <c r="C26" s="7">
+        <f>SUM(C2:C25)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -36,16 +36,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -135,7 +127,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -680,7 +672,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,15 +805,23 @@
       <c r="A12" s="9">
         <v>44968</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44969</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -913,11 +913,11 @@
       </c>
       <c r="B26" s="6">
         <f>SUM(B2:B25)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <f>SUM(C2:C25)</f>
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,22 +827,34 @@
       <c r="A14" s="9">
         <v>44970</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="10">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
@@ -908,22 +920,50 @@
       <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="6">
-        <f>SUM(B2:B25)</f>
-        <v>15</v>
-      </c>
-      <c r="C26" s="7">
-        <f>SUM(C2:C25)</f>
-        <v>85</v>
-      </c>
+      <c r="A26" s="9">
+        <v>44982</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="9">
+        <v>44983</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>44984</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>44985</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="6">
+        <f>SUM(B2:B29)</f>
+        <v>21</v>
+      </c>
+      <c r="C30" s="7">
+        <f>SUM(C2:C29)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,8 +860,12 @@
       <c r="A17" s="9">
         <v>44973</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="10">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
@@ -953,11 +957,11 @@
       </c>
       <c r="B30" s="6">
         <f>SUM(B2:B29)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <f>SUM(C2:C29)</f>
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D913D2CC-1FBA-4379-B9E2-C5BB4D49FC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -92,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,9 +128,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,7 +148,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,7 +186,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -223,6 +221,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -258,9 +273,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,21 +465,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -458,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44942</v>
       </c>
@@ -469,7 +501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44943</v>
       </c>
@@ -480,7 +512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44944</v>
       </c>
@@ -491,7 +523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44945</v>
       </c>
@@ -502,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44946</v>
       </c>
@@ -513,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44947</v>
       </c>
@@ -524,7 +556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44948</v>
       </c>
@@ -535,7 +567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44949</v>
       </c>
@@ -546,7 +578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44950</v>
       </c>
@@ -557,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44951</v>
       </c>
@@ -568,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44952</v>
       </c>
@@ -579,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44953</v>
       </c>
@@ -590,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44954</v>
       </c>
@@ -601,7 +633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44955</v>
       </c>
@@ -612,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44956</v>
       </c>
@@ -623,7 +655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44957</v>
       </c>
@@ -634,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
@@ -647,19 +679,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
@@ -668,19 +700,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -691,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -702,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -713,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -724,7 +756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -735,7 +767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44962</v>
       </c>
@@ -746,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -757,18 +789,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
       <c r="C8" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -779,7 +811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -790,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -801,18 +833,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44969</v>
       </c>
@@ -823,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -834,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -845,7 +877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -856,7 +888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -867,104 +899,112 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="10">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44977</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>44983</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>44984</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="6">
         <f>SUM(B2:B29)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7">
         <f>SUM(C2:C29)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D913D2CC-1FBA-4379-B9E2-C5BB4D49FC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F73A87C-F761-48D5-B03F-655A898736BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,6 +62,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -93,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,6 +132,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,7 +719,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,13 +783,13 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="12">
         <v>44962</v>
       </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
         <v>0</v>
       </c>
     </row>
@@ -845,13 +860,13 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="12">
         <v>44969</v>
       </c>
-      <c r="B13" s="10">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
         <v>0</v>
       </c>
     </row>
@@ -925,36 +940,56 @@
       <c r="A20" s="9">
         <v>44976</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="10">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44977</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="10">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="12">
         <v>44978</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="10">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -997,11 +1032,11 @@
       </c>
       <c r="B30" s="6">
         <f>SUM(B2:B29)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C30" s="7">
         <f>SUM(C2:C29)</f>
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F73A87C-F761-48D5-B03F-655A898736BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -163,7 +162,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +200,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -236,23 +235,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -288,26 +270,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,21 +445,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -505,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44942</v>
       </c>
@@ -516,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44943</v>
       </c>
@@ -527,7 +492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44944</v>
       </c>
@@ -538,7 +503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44945</v>
       </c>
@@ -549,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44946</v>
       </c>
@@ -560,7 +525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44947</v>
       </c>
@@ -571,7 +536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44948</v>
       </c>
@@ -582,7 +547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44949</v>
       </c>
@@ -593,7 +558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44950</v>
       </c>
@@ -604,7 +569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44951</v>
       </c>
@@ -615,7 +580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44952</v>
       </c>
@@ -626,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44953</v>
       </c>
@@ -637,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44954</v>
       </c>
@@ -648,7 +613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44955</v>
       </c>
@@ -659,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44956</v>
       </c>
@@ -670,7 +635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44957</v>
       </c>
@@ -681,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
@@ -694,19 +659,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
@@ -715,19 +680,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -738,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -749,7 +714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -760,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -771,7 +736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -782,7 +747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -793,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -804,7 +769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -815,7 +780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -826,7 +791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -837,7 +802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -848,7 +813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -859,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -870,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -881,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -892,7 +857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -903,7 +868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -914,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -925,7 +890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -936,7 +901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -947,29 +912,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>44977</v>
       </c>
-      <c r="B21" s="10">
-        <v>2</v>
-      </c>
-      <c r="C21" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>44978</v>
       </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -980,7 +945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -991,42 +956,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44983</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44984</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1004,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6FFE9C-BB82-4F29-B8A0-11844656ECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -162,7 +163,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +201,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -235,6 +236,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -270,9 +288,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,21 +480,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -470,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44942</v>
       </c>
@@ -481,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44943</v>
       </c>
@@ -492,7 +527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44944</v>
       </c>
@@ -503,7 +538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44945</v>
       </c>
@@ -514,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44946</v>
       </c>
@@ -525,7 +560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44947</v>
       </c>
@@ -536,7 +571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44948</v>
       </c>
@@ -547,7 +582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44949</v>
       </c>
@@ -558,7 +593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44950</v>
       </c>
@@ -569,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44951</v>
       </c>
@@ -580,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44952</v>
       </c>
@@ -591,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44953</v>
       </c>
@@ -602,7 +637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44954</v>
       </c>
@@ -613,7 +648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44955</v>
       </c>
@@ -624,7 +659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44956</v>
       </c>
@@ -635,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44957</v>
       </c>
@@ -646,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
@@ -659,19 +694,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
@@ -680,19 +715,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -703,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -714,7 +749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -725,7 +760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -736,7 +771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -747,7 +782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -758,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -769,7 +804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -780,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -791,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -802,7 +837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -813,7 +848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -824,7 +859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -835,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -846,7 +881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -857,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -868,7 +903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -879,7 +914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -890,7 +925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -901,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -912,7 +947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44977</v>
       </c>
@@ -923,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
@@ -934,7 +969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -945,7 +980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -956,55 +991,59 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>44983</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>44984</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="6">
         <f>SUM(B2:B29)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="7">
         <f>SUM(C2:C29)</f>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6FFE9C-BB82-4F29-B8A0-11844656ECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD488E-60E1-4826-AD54-03F4F056FD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +68,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -99,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +147,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -718,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,15 +1021,23 @@
       <c r="A26" s="9">
         <v>44982</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="10">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="15">
         <v>44983</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
@@ -1035,12 +1058,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="6">
-        <f>SUM(B2:B29)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" s="7">
-        <f>SUM(C2:C29)</f>
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD488E-60E1-4826-AD54-03F4F056FD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28FEE51-6D4B-4F51-A70A-132D7E17E4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,13 +733,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection sqref="A1:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,28 +1042,38 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="12">
         <v>44984</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="13">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="10">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="6">
-        <v>38</v>
+        <f>SUM(B2:B29)</f>
+        <v>40</v>
       </c>
       <c r="C30" s="7">
-        <v>202</v>
+        <f>SUM(C2:C29)</f>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,7 +1082,7 @@
       <c r="C31" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="185" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28FEE51-6D4B-4F51-A70A-132D7E17E4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2429A257-F75C-480E-85F6-8B049C95CDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
+    <sheet name="Março" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -499,14 +500,14 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,13 +522,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="12">
         <v>44942</v>
       </c>
-      <c r="B2" s="10">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
         <v>0</v>
       </c>
     </row>
@@ -554,13 +555,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="12">
         <v>44945</v>
       </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
         <v>0</v>
       </c>
     </row>
@@ -686,13 +687,13 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="12">
         <v>44957</v>
       </c>
-      <c r="B17" s="10">
-        <v>0</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
         <v>0</v>
       </c>
     </row>
@@ -733,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:C30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,4 +1086,252 @@
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="185" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63B8B49-339E-44B9-BA0A-4384BF475316}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>44986</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>44987</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>44988</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>44989</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>44990</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>44991</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>44992</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>44993</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>44994</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>44995</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>44996</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>44997</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>44998</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>44999</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>45000</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>45001</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>45002</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>45003</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45004</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>45005</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>45006</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>45007</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>45008</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>45009</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>45010</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>45011</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>45012</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>45013</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="6">
+        <f>SUM(B2:B29)</f>
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <f>SUM(C2:C29)</f>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2429A257-F75C-480E-85F6-8B049C95CDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5EF7E7-0563-40EB-AAAB-D13D124F126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,8 +1140,12 @@
       <c r="A4" s="9">
         <v>44988</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -1324,11 +1328,11 @@
       </c>
       <c r="B30" s="6">
         <f>SUM(B2:B29)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="7">
         <f>SUM(C2:C29)</f>
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5EF7E7-0563-40EB-AAAB-D13D124F126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F96C5A-FD52-4626-97F3-2F254D109F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="1620" windowWidth="11730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,15 +1151,23 @@
       <c r="A5" s="9">
         <v>44989</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -1328,11 +1336,11 @@
       </c>
       <c r="B30" s="6">
         <f>SUM(B2:B29)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C30" s="7">
         <f>SUM(C2:C29)</f>
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F96C5A-FD52-4626-97F3-2F254D109F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1620" windowWidth="11730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="1620" windowWidth="11736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -179,7 +178,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +216,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -252,23 +251,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -304,26 +286,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,21 +461,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -521,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>44942</v>
       </c>
@@ -532,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44943</v>
       </c>
@@ -543,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44944</v>
       </c>
@@ -554,7 +519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44945</v>
       </c>
@@ -565,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44946</v>
       </c>
@@ -576,7 +541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44947</v>
       </c>
@@ -587,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44948</v>
       </c>
@@ -598,7 +563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44949</v>
       </c>
@@ -609,7 +574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44950</v>
       </c>
@@ -620,7 +585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44951</v>
       </c>
@@ -631,7 +596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44952</v>
       </c>
@@ -642,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44953</v>
       </c>
@@ -653,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44954</v>
       </c>
@@ -664,7 +629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44955</v>
       </c>
@@ -675,7 +640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44956</v>
       </c>
@@ -686,7 +651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>44957</v>
       </c>
@@ -697,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
@@ -710,19 +675,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
@@ -731,21 +696,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -756,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -767,7 +732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -778,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -789,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -800,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -811,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -822,7 +787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -833,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -844,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -855,7 +820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -866,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -877,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -888,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -899,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -910,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -921,7 +886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -932,7 +897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -943,7 +908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -954,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -965,7 +930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>44977</v>
       </c>
@@ -976,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
@@ -987,7 +952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -998,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -1009,7 +974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
@@ -1020,7 +985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
@@ -1031,7 +996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>44983</v>
       </c>
@@ -1042,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>44984</v>
       </c>
@@ -1053,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
@@ -1064,7 +1029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1042,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1089,21 +1054,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63B8B49-339E-44B9-BA0A-4384BF475316}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1114,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44986</v>
       </c>
@@ -1125,7 +1090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44987</v>
       </c>
@@ -1136,7 +1101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44988</v>
       </c>
@@ -1147,7 +1112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44989</v>
       </c>
@@ -1158,7 +1123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
@@ -1169,168 +1134,168 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>44991</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44992</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44993</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44994</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44996</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44998</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>45000</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>45002</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>45003</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>45004</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>45006</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>45011</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>45012</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>45013</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,8 +1145,12 @@
       <c r="A8" s="9">
         <v>44992</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
@@ -1301,11 +1305,11 @@
       </c>
       <c r="B30" s="6">
         <f>SUM(B2:B29)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="7">
         <f>SUM(C2:C29)</f>
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19622B8B-94E6-4F11-BEDA-35ED8AE31300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1620" windowWidth="11736" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -178,7 +179,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +217,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -251,6 +252,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -286,9 +304,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -461,21 +496,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -486,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44942</v>
       </c>
@@ -497,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44943</v>
       </c>
@@ -508,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44944</v>
       </c>
@@ -519,7 +554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44945</v>
       </c>
@@ -530,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44946</v>
       </c>
@@ -541,7 +576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44947</v>
       </c>
@@ -552,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44948</v>
       </c>
@@ -563,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44949</v>
       </c>
@@ -574,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44950</v>
       </c>
@@ -585,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44951</v>
       </c>
@@ -596,7 +631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44952</v>
       </c>
@@ -607,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44953</v>
       </c>
@@ -618,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44954</v>
       </c>
@@ -629,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44955</v>
       </c>
@@ -640,7 +675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44956</v>
       </c>
@@ -651,7 +686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44957</v>
       </c>
@@ -662,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
@@ -675,19 +710,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
     </row>
   </sheetData>
@@ -696,21 +731,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -721,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -732,7 +767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -743,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -754,7 +789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -765,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -776,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -787,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -798,7 +833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -809,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -820,7 +855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -831,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -842,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -853,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -864,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -875,7 +910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -886,7 +921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -897,7 +932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -908,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -919,7 +954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -930,7 +965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44977</v>
       </c>
@@ -941,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
@@ -952,7 +987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -963,7 +998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -974,7 +1009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
@@ -985,7 +1020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
@@ -996,7 +1031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>44983</v>
       </c>
@@ -1007,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44984</v>
       </c>
@@ -1018,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
@@ -1029,7 +1064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1077,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1054,21 +1089,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44986</v>
       </c>
@@ -1090,7 +1125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44987</v>
       </c>
@@ -1101,7 +1136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44988</v>
       </c>
@@ -1112,7 +1147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44989</v>
       </c>
@@ -1123,7 +1158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
@@ -1134,14 +1169,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44991</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44992</v>
       </c>
@@ -1152,164 +1187,168 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44993</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44994</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44996</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44998</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45000</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45002</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45003</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>45004</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>45006</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>45011</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>45012</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>45013</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="6">
         <f>SUM(B2:B29)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C30" s="7">
         <f>SUM(C2:C29)</f>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19622B8B-94E6-4F11-BEDA-35ED8AE31300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF75D699-A5D8-4B34-85B8-EECE844DF974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,15 +1202,23 @@
       <c r="A10" s="9">
         <v>44994</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -1344,11 +1352,11 @@
       </c>
       <c r="B30" s="6">
         <f>SUM(B2:B29)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30" s="7">
         <f>SUM(C2:C29)</f>
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF75D699-A5D8-4B34-85B8-EECE844DF974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5BF825-B70F-4FE4-B219-F980050B4BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1090,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,8 +1173,12 @@
       <c r="A7" s="12">
         <v>44991</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -1224,139 +1228,244 @@
       <c r="A12" s="9">
         <v>44996</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="10">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="12">
         <v>44998</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45000</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45002</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45003</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>45004</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="12">
         <v>45006</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>45011</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>45012</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="12">
         <v>45013</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="6">
+      <c r="A30" s="9">
+        <v>45014</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1</v>
+      </c>
+      <c r="C30" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>45015</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>45016</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>14</v>
-      </c>
-      <c r="C30" s="7">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7">
         <f>SUM(C2:C29)</f>
-        <v>78</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5BF825-B70F-4FE4-B219-F980050B4BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -47,7 +46,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,6 +74,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -106,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +162,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -179,7 +193,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +231,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -252,23 +266,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -304,26 +301,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,21 +476,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -521,209 +501,374 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
+        <v>44927</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>44928</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>44929</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>44930</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>44931</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>44932</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>44933</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>44934</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>44935</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>44936</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>44937</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>44938</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>44939</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>44940</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>44941</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>44942</v>
       </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>44943</v>
       </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>44944</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B19" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C19" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>44945</v>
       </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>44946</v>
       </c>
-      <c r="B6" s="10">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="B21" s="10">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>44947</v>
       </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>44948</v>
       </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>44949</v>
       </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>44950</v>
       </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>44951</v>
       </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>44952</v>
       </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>44953</v>
       </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>44954</v>
       </c>
-      <c r="B14" s="10">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="B29" s="10">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>44955</v>
       </c>
-      <c r="B15" s="10">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>44956</v>
       </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="B31" s="10">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
         <v>44957</v>
       </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="6">
-        <f>SUM(B2:B17)</f>
+      <c r="B32" s="13">
+        <v>0</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6">
+        <f>SUM(B17:B32)</f>
         <v>18</v>
       </c>
-      <c r="C18" s="7">
-        <f>SUM(C2:C17)</f>
+      <c r="C33" s="7">
+        <f>SUM(C17:C32)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,21 +876,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -756,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -767,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -778,7 +923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -789,7 +934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -800,7 +945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -811,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -822,7 +967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -833,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -844,7 +989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -855,7 +1000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -866,7 +1011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -877,7 +1022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -888,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -899,7 +1044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -910,7 +1055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -921,7 +1066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -932,7 +1077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -943,7 +1088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -954,7 +1099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -965,7 +1110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>44977</v>
       </c>
@@ -976,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
@@ -987,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -998,7 +1143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -1009,7 +1154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
@@ -1020,7 +1165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
@@ -1031,7 +1176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>44983</v>
       </c>
@@ -1042,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>44984</v>
       </c>
@@ -1053,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
@@ -1064,7 +1209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1222,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1089,21 +1234,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1114,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44986</v>
       </c>
@@ -1125,7 +1270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44987</v>
       </c>
@@ -1136,7 +1281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44988</v>
       </c>
@@ -1147,7 +1292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44989</v>
       </c>
@@ -1158,7 +1303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
@@ -1169,7 +1314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44991</v>
       </c>
@@ -1180,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44992</v>
       </c>
@@ -1191,7 +1336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44993</v>
       </c>
@@ -1202,7 +1347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44994</v>
       </c>
@@ -1213,7 +1358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
@@ -1224,7 +1369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44996</v>
       </c>
@@ -1235,7 +1380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
@@ -1246,7 +1391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>44998</v>
       </c>
@@ -1257,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
@@ -1268,18 +1413,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>45000</v>
       </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1290,182 +1435,182 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
         <v>45002</v>
       </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="B18" s="19">
+        <v>0</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
         <v>45003</v>
       </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="B19" s="19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
         <v>45004</v>
       </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="B20" s="19">
+        <v>0</v>
+      </c>
+      <c r="C20" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
         <v>45005</v>
       </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="B21" s="19">
+        <v>0</v>
+      </c>
+      <c r="C21" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
         <v>45006</v>
       </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="B22" s="19">
+        <v>0</v>
+      </c>
+      <c r="C22" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
         <v>45007</v>
       </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="B23" s="19">
+        <v>0</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
         <v>45008</v>
       </c>
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="B24" s="19">
+        <v>0</v>
+      </c>
+      <c r="C24" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
         <v>45009</v>
       </c>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="B25" s="19">
+        <v>0</v>
+      </c>
+      <c r="C25" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
         <v>45010</v>
       </c>
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="B26" s="19">
+        <v>0</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
         <v>45011</v>
       </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="B27" s="19">
+        <v>0</v>
+      </c>
+      <c r="C27" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
         <v>45012</v>
       </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="B28" s="19">
+        <v>0</v>
+      </c>
+      <c r="C28" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
         <v>45013</v>
       </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="B29" s="19">
+        <v>0</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
         <v>45014</v>
       </c>
-      <c r="B30" s="10">
-        <v>1</v>
-      </c>
-      <c r="C30" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="B30" s="19">
+        <v>0</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
         <v>45015</v>
       </c>
-      <c r="B31" s="10">
-        <v>1</v>
-      </c>
-      <c r="C31" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="B31" s="19">
+        <v>0</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="18">
         <v>45016</v>
       </c>
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-      <c r="C32" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="19">
+        <v>0</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C29)</f>
-        <v>189</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
+    <sheet name="Relatorio" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -28,6 +29,15 @@
   </si>
   <si>
     <t>DIA</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Corridas</t>
+  </si>
+  <si>
+    <t>R$</t>
   </si>
 </sst>
 </file>
@@ -111,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,6 +183,12 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24:K25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,7 +867,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="7">
-        <f>SUM(C17:C32)</f>
+        <f>SUM(C2:C32)</f>
         <v>110</v>
       </c>
     </row>
@@ -880,7 +896,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1609,11 +1625,58 @@
         <v>20</v>
       </c>
       <c r="C33" s="7">
-        <f>SUM(C2:C29)</f>
+        <f>SUM(C2:C32)</f>
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="23">
+        <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="24">
+        <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>R$</t>
+  </si>
+  <si>
+    <t>ENTREGADOR</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -121,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,14 +187,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,9 +1281,11 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1274,8 +1295,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44986</v>
       </c>
@@ -1285,8 +1310,14 @@
       <c r="C2" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="27">
+        <v>54</v>
+      </c>
+      <c r="E2" s="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44987</v>
       </c>
@@ -1296,8 +1327,14 @@
       <c r="C3" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="27">
+        <v>54</v>
+      </c>
+      <c r="E3" s="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44988</v>
       </c>
@@ -1307,8 +1344,14 @@
       <c r="C4" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="27">
+        <v>54</v>
+      </c>
+      <c r="E4" s="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44989</v>
       </c>
@@ -1318,8 +1361,14 @@
       <c r="C5" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="27">
+        <v>54</v>
+      </c>
+      <c r="E5" s="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
@@ -1329,19 +1378,31 @@
       <c r="C6" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="27">
+        <v>54</v>
+      </c>
+      <c r="E6" s="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44991</v>
       </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44992</v>
       </c>
@@ -1351,8 +1412,14 @@
       <c r="C8" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="27">
+        <v>54</v>
+      </c>
+      <c r="E8" s="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44993</v>
       </c>
@@ -1362,8 +1429,14 @@
       <c r="C9" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="27">
+        <v>54</v>
+      </c>
+      <c r="E9" s="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44994</v>
       </c>
@@ -1373,8 +1446,14 @@
       <c r="C10" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="27">
+        <v>54</v>
+      </c>
+      <c r="E10" s="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
@@ -1384,8 +1463,14 @@
       <c r="C11" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="27">
+        <v>54</v>
+      </c>
+      <c r="E11" s="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44996</v>
       </c>
@@ -1395,8 +1480,14 @@
       <c r="C12" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="27">
+        <v>54</v>
+      </c>
+      <c r="E12" s="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
@@ -1406,19 +1497,31 @@
       <c r="C13" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="27">
+        <v>54</v>
+      </c>
+      <c r="E13" s="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>44998</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
@@ -1428,19 +1531,31 @@
       <c r="C15" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="27">
+        <v>54</v>
+      </c>
+      <c r="E15" s="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>45000</v>
       </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1450,52 +1565,80 @@
       <c r="C17" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+      <c r="D17" s="27">
+        <v>54</v>
+      </c>
+      <c r="E17" s="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>45002</v>
       </c>
-      <c r="B18" s="19">
-        <v>0</v>
-      </c>
-      <c r="C18" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="B18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>45003</v>
       </c>
-      <c r="B19" s="19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="B19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>45004</v>
       </c>
-      <c r="B20" s="19">
-        <v>0</v>
-      </c>
-      <c r="C20" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+      <c r="B20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>45005</v>
       </c>
-      <c r="B21" s="19">
-        <v>0</v>
-      </c>
-      <c r="C21" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="10">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11">
+        <v>10</v>
+      </c>
+      <c r="D21" s="27">
+        <v>27</v>
+      </c>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>45006</v>
       </c>
@@ -1505,8 +1648,10 @@
       <c r="C22" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>45007</v>
       </c>
@@ -1516,8 +1661,10 @@
       <c r="C23" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>45008</v>
       </c>
@@ -1527,8 +1674,10 @@
       <c r="C24" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>45009</v>
       </c>
@@ -1538,8 +1687,10 @@
       <c r="C25" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>45010</v>
       </c>
@@ -1549,8 +1700,10 @@
       <c r="C26" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>45011</v>
       </c>
@@ -1560,8 +1713,10 @@
       <c r="C27" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>45012</v>
       </c>
@@ -1571,8 +1726,10 @@
       <c r="C28" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>45013</v>
       </c>
@@ -1582,8 +1739,10 @@
       <c r="C29" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>45014</v>
       </c>
@@ -1593,8 +1752,10 @@
       <c r="C30" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>45015</v>
       </c>
@@ -1604,8 +1765,10 @@
       <c r="C31" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>45016</v>
       </c>
@@ -1615,21 +1778,28 @@
       <c r="C32" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>112</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1645,30 +1815,30 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="23">
+      <c r="B2" s="24"/>
+      <c r="C2" s="22">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="24">
+      <c r="B3" s="24"/>
+      <c r="C3" s="23">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -192,20 +192,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1273,20 +1275,20 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -1295,10 +1297,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="26"/>
+      <c r="D1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
@@ -1310,10 +1312,10 @@
       <c r="C2" s="11">
         <v>10</v>
       </c>
-      <c r="D2" s="27">
-        <v>54</v>
-      </c>
-      <c r="E2" s="27">
+      <c r="D2" s="26">
+        <v>54</v>
+      </c>
+      <c r="E2" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1327,10 +1329,10 @@
       <c r="C3" s="11">
         <v>7</v>
       </c>
-      <c r="D3" s="27">
-        <v>54</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="26">
+        <v>54</v>
+      </c>
+      <c r="E3" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1344,10 +1346,10 @@
       <c r="C4" s="11">
         <v>7</v>
       </c>
-      <c r="D4" s="27">
-        <v>54</v>
-      </c>
-      <c r="E4" s="27">
+      <c r="D4" s="26">
+        <v>54</v>
+      </c>
+      <c r="E4" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1361,10 +1363,10 @@
       <c r="C5" s="11">
         <v>10</v>
       </c>
-      <c r="D5" s="27">
-        <v>54</v>
-      </c>
-      <c r="E5" s="27">
+      <c r="D5" s="26">
+        <v>54</v>
+      </c>
+      <c r="E5" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1378,10 +1380,10 @@
       <c r="C6" s="11">
         <v>7</v>
       </c>
-      <c r="D6" s="27">
-        <v>54</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="D6" s="26">
+        <v>54</v>
+      </c>
+      <c r="E6" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1395,10 +1397,10 @@
       <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1412,10 +1414,10 @@
       <c r="C8" s="11">
         <v>10</v>
       </c>
-      <c r="D8" s="27">
-        <v>54</v>
-      </c>
-      <c r="E8" s="27">
+      <c r="D8" s="26">
+        <v>54</v>
+      </c>
+      <c r="E8" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1429,10 +1431,10 @@
       <c r="C9" s="11">
         <v>10</v>
       </c>
-      <c r="D9" s="27">
-        <v>54</v>
-      </c>
-      <c r="E9" s="27">
+      <c r="D9" s="26">
+        <v>54</v>
+      </c>
+      <c r="E9" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1446,10 +1448,10 @@
       <c r="C10" s="11">
         <v>7</v>
       </c>
-      <c r="D10" s="27">
-        <v>54</v>
-      </c>
-      <c r="E10" s="27">
+      <c r="D10" s="26">
+        <v>54</v>
+      </c>
+      <c r="E10" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1463,10 +1465,10 @@
       <c r="C11" s="11">
         <v>10</v>
       </c>
-      <c r="D11" s="27">
-        <v>54</v>
-      </c>
-      <c r="E11" s="27">
+      <c r="D11" s="26">
+        <v>54</v>
+      </c>
+      <c r="E11" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1480,10 +1482,10 @@
       <c r="C12" s="11">
         <v>10</v>
       </c>
-      <c r="D12" s="27">
-        <v>54</v>
-      </c>
-      <c r="E12" s="27">
+      <c r="D12" s="26">
+        <v>54</v>
+      </c>
+      <c r="E12" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1497,10 +1499,10 @@
       <c r="C13" s="11">
         <v>10</v>
       </c>
-      <c r="D13" s="27">
-        <v>54</v>
-      </c>
-      <c r="E13" s="27">
+      <c r="D13" s="26">
+        <v>54</v>
+      </c>
+      <c r="E13" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1514,10 +1516,10 @@
       <c r="C14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="29" t="s">
+      <c r="D14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1531,10 +1533,10 @@
       <c r="C15" s="11">
         <v>7</v>
       </c>
-      <c r="D15" s="27">
-        <v>54</v>
-      </c>
-      <c r="E15" s="27">
+      <c r="D15" s="26">
+        <v>54</v>
+      </c>
+      <c r="E15" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1548,10 +1550,10 @@
       <c r="C16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="29" t="s">
+      <c r="D16" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1565,10 +1567,10 @@
       <c r="C17" s="11">
         <v>7</v>
       </c>
-      <c r="D17" s="27">
-        <v>54</v>
-      </c>
-      <c r="E17" s="27">
+      <c r="D17" s="26">
+        <v>54</v>
+      </c>
+      <c r="E17" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1582,10 +1584,10 @@
       <c r="C18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="29" t="s">
+      <c r="D18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1599,10 +1601,10 @@
       <c r="C19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="29" t="s">
+      <c r="D19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1616,10 +1618,10 @@
       <c r="C20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="29" t="s">
+      <c r="D20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1633,23 +1635,29 @@
       <c r="C21" s="11">
         <v>10</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <v>27</v>
       </c>
-      <c r="E21" s="28"/>
+      <c r="E21" s="26">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="9">
         <v>45006</v>
       </c>
-      <c r="B22" s="19">
-        <v>0</v>
-      </c>
-      <c r="C22" s="20">
-        <v>0</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="B22" s="10">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11">
+        <v>10</v>
+      </c>
+      <c r="D22" s="26">
+        <v>54</v>
+      </c>
+      <c r="E22" s="26">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
@@ -1661,8 +1669,8 @@
       <c r="C23" s="20">
         <v>0</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
@@ -1674,8 +1682,8 @@
       <c r="C24" s="20">
         <v>0</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
@@ -1687,8 +1695,8 @@
       <c r="C25" s="20">
         <v>0</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
@@ -1700,8 +1708,8 @@
       <c r="C26" s="20">
         <v>0</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
@@ -1713,8 +1721,8 @@
       <c r="C27" s="20">
         <v>0</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
@@ -1726,8 +1734,8 @@
       <c r="C28" s="20">
         <v>0</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
@@ -1739,8 +1747,8 @@
       <c r="C29" s="20">
         <v>0</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
@@ -1752,8 +1760,8 @@
       <c r="C30" s="20">
         <v>0</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
@@ -1765,8 +1773,8 @@
       <c r="C31" s="20">
         <v>0</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
@@ -1778,8 +1786,8 @@
       <c r="C32" s="20">
         <v>0</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
@@ -1787,14 +1795,14 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>122</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1815,30 +1823,30 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="22">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="23">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1660,17 +1660,21 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+      <c r="A23" s="9">
         <v>45007</v>
       </c>
-      <c r="B23" s="19">
-        <v>0</v>
-      </c>
-      <c r="C23" s="20">
-        <v>0</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="B23" s="10">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11">
+        <v>10</v>
+      </c>
+      <c r="D23" s="26">
+        <v>54</v>
+      </c>
+      <c r="E23" s="26">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
@@ -1795,11 +1799,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -1836,7 +1840,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="22">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1846,7 +1850,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="23">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF281525-5270-401C-9EAC-8EF39E553E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Relatorio" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -127,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,9 +194,6 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -230,7 +228,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -268,7 +266,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -303,6 +301,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -338,9 +353,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,21 +545,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -538,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44927</v>
       </c>
@@ -549,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44928</v>
       </c>
@@ -560,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44929</v>
       </c>
@@ -571,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44930</v>
       </c>
@@ -582,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44931</v>
       </c>
@@ -593,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44932</v>
       </c>
@@ -604,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44933</v>
       </c>
@@ -615,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44934</v>
       </c>
@@ -626,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44935</v>
       </c>
@@ -637,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44936</v>
       </c>
@@ -648,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44937</v>
       </c>
@@ -659,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44938</v>
       </c>
@@ -670,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44939</v>
       </c>
@@ -681,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44940</v>
       </c>
@@ -692,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44941</v>
       </c>
@@ -703,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44942</v>
       </c>
@@ -714,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44943</v>
       </c>
@@ -725,7 +757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44944</v>
       </c>
@@ -736,7 +768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44945</v>
       </c>
@@ -747,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44946</v>
       </c>
@@ -758,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44947</v>
       </c>
@@ -769,7 +801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44948</v>
       </c>
@@ -780,7 +812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44949</v>
       </c>
@@ -791,7 +823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44950</v>
       </c>
@@ -802,7 +834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44951</v>
       </c>
@@ -813,7 +845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>44952</v>
       </c>
@@ -824,7 +856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>44953</v>
       </c>
@@ -835,7 +867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44954</v>
       </c>
@@ -846,7 +878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>44955</v>
       </c>
@@ -857,7 +889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>44956</v>
       </c>
@@ -868,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44957</v>
       </c>
@@ -879,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -892,19 +924,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -913,21 +945,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -938,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -949,7 +981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -960,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -971,7 +1003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -982,7 +1014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -993,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -1004,7 +1036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -1015,7 +1047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -1026,7 +1058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -1037,7 +1069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -1048,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -1059,7 +1091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -1070,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -1081,7 +1113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -1092,7 +1124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -1103,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -1114,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -1125,7 +1157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -1136,7 +1168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -1147,7 +1179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44977</v>
       </c>
@@ -1158,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
@@ -1169,7 +1201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -1180,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -1191,7 +1223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
@@ -1202,7 +1234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
@@ -1213,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>44983</v>
       </c>
@@ -1224,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44984</v>
       </c>
@@ -1235,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
@@ -1246,7 +1278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1291,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1271,24 +1303,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -1297,12 +1329,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44986</v>
       </c>
@@ -1312,14 +1344,14 @@
       <c r="C2" s="11">
         <v>10</v>
       </c>
-      <c r="D2" s="26">
-        <v>54</v>
-      </c>
-      <c r="E2" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="25">
+        <v>54</v>
+      </c>
+      <c r="E2" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44987</v>
       </c>
@@ -1329,14 +1361,14 @@
       <c r="C3" s="11">
         <v>7</v>
       </c>
-      <c r="D3" s="26">
-        <v>54</v>
-      </c>
-      <c r="E3" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="25">
+        <v>54</v>
+      </c>
+      <c r="E3" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44988</v>
       </c>
@@ -1346,14 +1378,14 @@
       <c r="C4" s="11">
         <v>7</v>
       </c>
-      <c r="D4" s="26">
-        <v>54</v>
-      </c>
-      <c r="E4" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="25">
+        <v>54</v>
+      </c>
+      <c r="E4" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44989</v>
       </c>
@@ -1363,14 +1395,14 @@
       <c r="C5" s="11">
         <v>10</v>
       </c>
-      <c r="D5" s="26">
-        <v>54</v>
-      </c>
-      <c r="E5" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="25">
+        <v>54</v>
+      </c>
+      <c r="E5" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
@@ -1380,14 +1412,14 @@
       <c r="C6" s="11">
         <v>7</v>
       </c>
-      <c r="D6" s="26">
-        <v>54</v>
-      </c>
-      <c r="E6" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="25">
+        <v>54</v>
+      </c>
+      <c r="E6" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44991</v>
       </c>
@@ -1397,14 +1429,14 @@
       <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44992</v>
       </c>
@@ -1414,14 +1446,14 @@
       <c r="C8" s="11">
         <v>10</v>
       </c>
-      <c r="D8" s="26">
-        <v>54</v>
-      </c>
-      <c r="E8" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="25">
+        <v>54</v>
+      </c>
+      <c r="E8" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44993</v>
       </c>
@@ -1431,14 +1463,14 @@
       <c r="C9" s="11">
         <v>10</v>
       </c>
-      <c r="D9" s="26">
-        <v>54</v>
-      </c>
-      <c r="E9" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="25">
+        <v>54</v>
+      </c>
+      <c r="E9" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44994</v>
       </c>
@@ -1448,14 +1480,14 @@
       <c r="C10" s="11">
         <v>7</v>
       </c>
-      <c r="D10" s="26">
-        <v>54</v>
-      </c>
-      <c r="E10" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="25">
+        <v>54</v>
+      </c>
+      <c r="E10" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
@@ -1465,14 +1497,14 @@
       <c r="C11" s="11">
         <v>10</v>
       </c>
-      <c r="D11" s="26">
-        <v>54</v>
-      </c>
-      <c r="E11" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="25">
+        <v>54</v>
+      </c>
+      <c r="E11" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44996</v>
       </c>
@@ -1482,14 +1514,14 @@
       <c r="C12" s="11">
         <v>10</v>
       </c>
-      <c r="D12" s="26">
-        <v>54</v>
-      </c>
-      <c r="E12" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="25">
+        <v>54</v>
+      </c>
+      <c r="E12" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
@@ -1499,14 +1531,14 @@
       <c r="C13" s="11">
         <v>10</v>
       </c>
-      <c r="D13" s="26">
-        <v>54</v>
-      </c>
-      <c r="E13" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="25">
+        <v>54</v>
+      </c>
+      <c r="E13" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44998</v>
       </c>
@@ -1516,14 +1548,14 @@
       <c r="C14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
@@ -1533,14 +1565,14 @@
       <c r="C15" s="11">
         <v>7</v>
       </c>
-      <c r="D15" s="26">
-        <v>54</v>
-      </c>
-      <c r="E15" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="25">
+        <v>54</v>
+      </c>
+      <c r="E15" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>45000</v>
       </c>
@@ -1550,14 +1582,14 @@
       <c r="C16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1567,14 +1599,14 @@
       <c r="C17" s="11">
         <v>7</v>
       </c>
-      <c r="D17" s="26">
-        <v>54</v>
-      </c>
-      <c r="E17" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="25">
+        <v>54</v>
+      </c>
+      <c r="E17" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>45002</v>
       </c>
@@ -1584,14 +1616,14 @@
       <c r="C18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>45003</v>
       </c>
@@ -1601,14 +1633,14 @@
       <c r="C19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>45004</v>
       </c>
@@ -1618,14 +1650,14 @@
       <c r="C20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
@@ -1635,14 +1667,14 @@
       <c r="C21" s="11">
         <v>10</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="25">
         <v>27</v>
       </c>
-      <c r="E21" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>45006</v>
       </c>
@@ -1652,14 +1684,14 @@
       <c r="C22" s="11">
         <v>10</v>
       </c>
-      <c r="D22" s="26">
-        <v>54</v>
-      </c>
-      <c r="E22" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="25">
+        <v>54</v>
+      </c>
+      <c r="E22" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
@@ -1669,27 +1701,29 @@
       <c r="C23" s="11">
         <v>10</v>
       </c>
-      <c r="D23" s="26">
-        <v>54</v>
-      </c>
-      <c r="E23" s="26">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="D23" s="25">
+        <v>54</v>
+      </c>
+      <c r="E23" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>45008</v>
       </c>
-      <c r="B24" s="19">
-        <v>0</v>
-      </c>
-      <c r="C24" s="20">
-        <v>0</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11">
+        <v>7</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>45009</v>
       </c>
@@ -1702,7 +1736,7 @@
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>45010</v>
       </c>
@@ -1715,7 +1749,7 @@
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>45011</v>
       </c>
@@ -1728,7 +1762,7 @@
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>45012</v>
       </c>
@@ -1741,7 +1775,7 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>45013</v>
       </c>
@@ -1754,7 +1788,7 @@
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>45014</v>
       </c>
@@ -1767,7 +1801,7 @@
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>45015</v>
       </c>
@@ -1780,7 +1814,7 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>45016</v>
       </c>
@@ -1793,20 +1827,20 @@
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>142</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+        <v>149</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1817,40 +1851,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="22">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="23">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF281525-5270-401C-9EAC-8EF39E553E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE975314-9F48-47F7-8B70-116529C31915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,23 +1718,29 @@
       <c r="C24" s="11">
         <v>7</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="E24" s="25">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="9">
         <v>45009</v>
       </c>
-      <c r="B25" s="19">
-        <v>0</v>
-      </c>
-      <c r="C25" s="20">
-        <v>0</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="10">
+        <v>2</v>
+      </c>
+      <c r="C25" s="11">
+        <v>10</v>
+      </c>
+      <c r="D25" s="25">
+        <v>54</v>
+      </c>
+      <c r="E25" s="25">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
@@ -1833,11 +1839,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1874,7 +1880,7 @@
       <c r="B2" s="28"/>
       <c r="C2" s="22">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1884,7 +1890,7 @@
       <c r="B3" s="28"/>
       <c r="C3" s="23">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE975314-9F48-47F7-8B70-116529C31915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A627CA-8B68-421C-AACD-F41B04549055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,17 +1743,21 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="9">
         <v>45010</v>
       </c>
-      <c r="B26" s="19">
-        <v>0</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="B26" s="10">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>10</v>
+      </c>
+      <c r="D26" s="25">
+        <v>54</v>
+      </c>
+      <c r="E26" s="25">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
@@ -1839,11 +1843,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1880,7 +1884,7 @@
       <c r="B2" s="28"/>
       <c r="C2" s="22">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1890,7 +1894,7 @@
       <c r="B3" s="28"/>
       <c r="C3" s="23">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A627CA-8B68-421C-AACD-F41B04549055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE68665-0364-4653-BE46-31FE937FD834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,30 +1760,38 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="12">
         <v>45011</v>
       </c>
-      <c r="B27" s="19">
-        <v>0</v>
-      </c>
-      <c r="C27" s="20">
-        <v>0</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="B27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="12">
         <v>45012</v>
       </c>
-      <c r="B28" s="19">
-        <v>0</v>
-      </c>
-      <c r="C28" s="20">
-        <v>0</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="B28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="18">

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE68665-0364-4653-BE46-31FE937FD834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Relatorio" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -228,7 +227,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -266,7 +265,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -301,23 +300,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -353,26 +335,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -545,21 +510,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -570,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>44927</v>
       </c>
@@ -581,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>44928</v>
       </c>
@@ -592,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>44929</v>
       </c>
@@ -603,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44930</v>
       </c>
@@ -614,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44931</v>
       </c>
@@ -625,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44932</v>
       </c>
@@ -636,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>44933</v>
       </c>
@@ -647,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>44934</v>
       </c>
@@ -658,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>44935</v>
       </c>
@@ -669,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>44936</v>
       </c>
@@ -680,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>44937</v>
       </c>
@@ -691,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44938</v>
       </c>
@@ -702,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>44939</v>
       </c>
@@ -713,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>44940</v>
       </c>
@@ -724,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>44941</v>
       </c>
@@ -735,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>44942</v>
       </c>
@@ -746,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44943</v>
       </c>
@@ -757,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44944</v>
       </c>
@@ -768,7 +733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>44945</v>
       </c>
@@ -779,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44946</v>
       </c>
@@ -790,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44947</v>
       </c>
@@ -801,7 +766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44948</v>
       </c>
@@ -812,7 +777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44949</v>
       </c>
@@ -823,7 +788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44950</v>
       </c>
@@ -834,7 +799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44951</v>
       </c>
@@ -845,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44952</v>
       </c>
@@ -856,7 +821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44953</v>
       </c>
@@ -867,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44954</v>
       </c>
@@ -878,7 +843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44955</v>
       </c>
@@ -889,7 +854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44956</v>
       </c>
@@ -900,7 +865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>44957</v>
       </c>
@@ -911,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -924,19 +889,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -945,21 +910,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -970,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -981,7 +946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -992,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -1003,7 +968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -1014,7 +979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -1025,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -1036,7 +1001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -1047,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -1058,7 +1023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -1069,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -1080,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -1091,7 +1056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -1102,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -1113,7 +1078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -1124,7 +1089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -1135,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -1146,7 +1111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -1157,7 +1122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -1168,7 +1133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -1179,7 +1144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>44977</v>
       </c>
@@ -1190,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
@@ -1201,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -1212,7 +1177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -1223,7 +1188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
@@ -1234,7 +1199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
@@ -1245,7 +1210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>44983</v>
       </c>
@@ -1256,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>44984</v>
       </c>
@@ -1267,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
@@ -1278,7 +1243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1256,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1303,23 +1268,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1299,7 @@
       </c>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44986</v>
       </c>
@@ -1351,7 +1316,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44987</v>
       </c>
@@ -1368,7 +1333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44988</v>
       </c>
@@ -1385,7 +1350,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44989</v>
       </c>
@@ -1402,7 +1367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
@@ -1419,7 +1384,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44991</v>
       </c>
@@ -1436,7 +1401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44992</v>
       </c>
@@ -1453,7 +1418,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44993</v>
       </c>
@@ -1470,7 +1435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44994</v>
       </c>
@@ -1487,7 +1452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
@@ -1504,7 +1469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44996</v>
       </c>
@@ -1521,7 +1486,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
@@ -1538,7 +1503,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>44998</v>
       </c>
@@ -1555,7 +1520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
@@ -1572,7 +1537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>45000</v>
       </c>
@@ -1589,7 +1554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1606,7 +1571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>45002</v>
       </c>
@@ -1623,7 +1588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>45003</v>
       </c>
@@ -1640,7 +1605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>45004</v>
       </c>
@@ -1657,7 +1622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
@@ -1674,7 +1639,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>45006</v>
       </c>
@@ -1691,7 +1656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
@@ -1708,7 +1673,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
@@ -1725,7 +1690,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
@@ -1742,7 +1707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
@@ -1759,7 +1724,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>45011</v>
       </c>
@@ -1776,7 +1741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>45012</v>
       </c>
@@ -1793,33 +1758,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>45013</v>
       </c>
-      <c r="B29" s="19">
-        <v>0</v>
-      </c>
-      <c r="C29" s="20">
-        <v>0</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="B29" s="10">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11">
+        <v>10</v>
+      </c>
+      <c r="D29" s="25">
+        <v>54</v>
+      </c>
+      <c r="E29" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>45014</v>
       </c>
-      <c r="B30" s="19">
-        <v>0</v>
-      </c>
-      <c r="C30" s="20">
-        <v>0</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="11">
+        <v>10</v>
+      </c>
+      <c r="D30" s="25">
+        <v>54</v>
+      </c>
+      <c r="E30" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>45015</v>
       </c>
@@ -1832,7 +1805,7 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>45016</v>
       </c>
@@ -1845,17 +1818,17 @@
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1869,40 +1842,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="22">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="23">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>491</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F84409F-C847-4FAD-887D-90DA1E8E0BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Relatorio" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -227,7 +228,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -265,7 +266,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -300,6 +301,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -335,9 +353,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,21 +545,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -535,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44927</v>
       </c>
@@ -546,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44928</v>
       </c>
@@ -557,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44929</v>
       </c>
@@ -568,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44930</v>
       </c>
@@ -579,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44931</v>
       </c>
@@ -590,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44932</v>
       </c>
@@ -601,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44933</v>
       </c>
@@ -612,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44934</v>
       </c>
@@ -623,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44935</v>
       </c>
@@ -634,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44936</v>
       </c>
@@ -645,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44937</v>
       </c>
@@ -656,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44938</v>
       </c>
@@ -667,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44939</v>
       </c>
@@ -678,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44940</v>
       </c>
@@ -689,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44941</v>
       </c>
@@ -700,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44942</v>
       </c>
@@ -711,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44943</v>
       </c>
@@ -722,7 +757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44944</v>
       </c>
@@ -733,7 +768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44945</v>
       </c>
@@ -744,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44946</v>
       </c>
@@ -755,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44947</v>
       </c>
@@ -766,7 +801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44948</v>
       </c>
@@ -777,7 +812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44949</v>
       </c>
@@ -788,7 +823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44950</v>
       </c>
@@ -799,7 +834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44951</v>
       </c>
@@ -810,7 +845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>44952</v>
       </c>
@@ -821,7 +856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>44953</v>
       </c>
@@ -832,7 +867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44954</v>
       </c>
@@ -843,7 +878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>44955</v>
       </c>
@@ -854,7 +889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>44956</v>
       </c>
@@ -865,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44957</v>
       </c>
@@ -876,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -889,19 +924,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -910,21 +945,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -935,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -946,7 +981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -957,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -968,7 +1003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -979,7 +1014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -990,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -1001,7 +1036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -1012,7 +1047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -1023,7 +1058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -1034,7 +1069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -1045,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -1056,7 +1091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -1067,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -1078,7 +1113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -1089,7 +1124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -1100,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -1111,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -1122,7 +1157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -1133,7 +1168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -1144,7 +1179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44977</v>
       </c>
@@ -1155,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
@@ -1166,7 +1201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -1177,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -1188,7 +1223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
@@ -1199,7 +1234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
@@ -1210,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>44983</v>
       </c>
@@ -1221,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44984</v>
       </c>
@@ -1232,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
@@ -1243,7 +1278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1291,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1268,23 +1303,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1299,7 +1334,7 @@
       </c>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44986</v>
       </c>
@@ -1316,7 +1351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44987</v>
       </c>
@@ -1333,7 +1368,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44988</v>
       </c>
@@ -1350,7 +1385,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44989</v>
       </c>
@@ -1367,7 +1402,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
@@ -1384,7 +1419,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44991</v>
       </c>
@@ -1401,7 +1436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44992</v>
       </c>
@@ -1418,7 +1453,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44993</v>
       </c>
@@ -1435,7 +1470,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44994</v>
       </c>
@@ -1452,7 +1487,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
@@ -1469,7 +1504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44996</v>
       </c>
@@ -1486,7 +1521,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
@@ -1503,7 +1538,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44998</v>
       </c>
@@ -1520,7 +1555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
@@ -1537,7 +1572,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>45000</v>
       </c>
@@ -1554,7 +1589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1571,7 +1606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>45002</v>
       </c>
@@ -1588,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>45003</v>
       </c>
@@ -1605,7 +1640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>45004</v>
       </c>
@@ -1622,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
@@ -1639,7 +1674,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>45006</v>
       </c>
@@ -1656,7 +1691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
@@ -1673,7 +1708,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
@@ -1690,7 +1725,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
@@ -1707,7 +1742,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
@@ -1724,7 +1759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>45011</v>
       </c>
@@ -1741,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>45012</v>
       </c>
@@ -1758,7 +1793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>45013</v>
       </c>
@@ -1775,7 +1810,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>45014</v>
       </c>
@@ -1792,20 +1827,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>45015</v>
       </c>
-      <c r="B31" s="19">
-        <v>0</v>
-      </c>
-      <c r="C31" s="20">
-        <v>0</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="10">
+        <v>2</v>
+      </c>
+      <c r="C31" s="11">
+        <v>10</v>
+      </c>
+      <c r="D31" s="25">
+        <v>54</v>
+      </c>
+      <c r="E31" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>45016</v>
       </c>
@@ -1818,17 +1857,17 @@
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
-        <f>SUM(B2:B29)</f>
-        <v>33</v>
+        <f>SUM(B2:B32)</f>
+        <v>37</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1842,40 +1881,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="22">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="23">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F84409F-C847-4FAD-887D-90DA1E8E0BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34CE1B1-9A5C-4A59-AFF2-F21814856141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,12 +91,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,23 +173,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1306,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,10 +1311,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="27"/>
+      <c r="D1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1344,10 +1326,10 @@
       <c r="C2" s="11">
         <v>10</v>
       </c>
-      <c r="D2" s="25">
-        <v>54</v>
-      </c>
-      <c r="E2" s="25">
+      <c r="D2" s="21">
+        <v>54</v>
+      </c>
+      <c r="E2" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1361,10 +1343,10 @@
       <c r="C3" s="11">
         <v>7</v>
       </c>
-      <c r="D3" s="25">
-        <v>54</v>
-      </c>
-      <c r="E3" s="25">
+      <c r="D3" s="21">
+        <v>54</v>
+      </c>
+      <c r="E3" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1378,10 +1360,10 @@
       <c r="C4" s="11">
         <v>7</v>
       </c>
-      <c r="D4" s="25">
-        <v>54</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="D4" s="21">
+        <v>54</v>
+      </c>
+      <c r="E4" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1395,10 +1377,10 @@
       <c r="C5" s="11">
         <v>10</v>
       </c>
-      <c r="D5" s="25">
-        <v>54</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="D5" s="21">
+        <v>54</v>
+      </c>
+      <c r="E5" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1412,10 +1394,10 @@
       <c r="C6" s="11">
         <v>7</v>
       </c>
-      <c r="D6" s="25">
-        <v>54</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="D6" s="21">
+        <v>54</v>
+      </c>
+      <c r="E6" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1429,10 +1411,10 @@
       <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="26" t="s">
+      <c r="D7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1446,10 +1428,10 @@
       <c r="C8" s="11">
         <v>10</v>
       </c>
-      <c r="D8" s="25">
-        <v>54</v>
-      </c>
-      <c r="E8" s="25">
+      <c r="D8" s="21">
+        <v>54</v>
+      </c>
+      <c r="E8" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1463,10 +1445,10 @@
       <c r="C9" s="11">
         <v>10</v>
       </c>
-      <c r="D9" s="25">
-        <v>54</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="D9" s="21">
+        <v>54</v>
+      </c>
+      <c r="E9" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1480,10 +1462,10 @@
       <c r="C10" s="11">
         <v>7</v>
       </c>
-      <c r="D10" s="25">
-        <v>54</v>
-      </c>
-      <c r="E10" s="25">
+      <c r="D10" s="21">
+        <v>54</v>
+      </c>
+      <c r="E10" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1497,10 +1479,10 @@
       <c r="C11" s="11">
         <v>10</v>
       </c>
-      <c r="D11" s="25">
-        <v>54</v>
-      </c>
-      <c r="E11" s="25">
+      <c r="D11" s="21">
+        <v>54</v>
+      </c>
+      <c r="E11" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1514,10 +1496,10 @@
       <c r="C12" s="11">
         <v>10</v>
       </c>
-      <c r="D12" s="25">
-        <v>54</v>
-      </c>
-      <c r="E12" s="25">
+      <c r="D12" s="21">
+        <v>54</v>
+      </c>
+      <c r="E12" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1531,10 +1513,10 @@
       <c r="C13" s="11">
         <v>10</v>
       </c>
-      <c r="D13" s="25">
-        <v>54</v>
-      </c>
-      <c r="E13" s="25">
+      <c r="D13" s="21">
+        <v>54</v>
+      </c>
+      <c r="E13" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1548,10 +1530,10 @@
       <c r="C14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="26" t="s">
+      <c r="D14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1565,10 +1547,10 @@
       <c r="C15" s="11">
         <v>7</v>
       </c>
-      <c r="D15" s="25">
-        <v>54</v>
-      </c>
-      <c r="E15" s="25">
+      <c r="D15" s="21">
+        <v>54</v>
+      </c>
+      <c r="E15" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1582,10 +1564,10 @@
       <c r="C16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="26" t="s">
+      <c r="D16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1599,10 +1581,10 @@
       <c r="C17" s="11">
         <v>7</v>
       </c>
-      <c r="D17" s="25">
-        <v>54</v>
-      </c>
-      <c r="E17" s="25">
+      <c r="D17" s="21">
+        <v>54</v>
+      </c>
+      <c r="E17" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1616,10 +1598,10 @@
       <c r="C18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1633,10 +1615,10 @@
       <c r="C19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1650,10 +1632,10 @@
       <c r="C20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="26" t="s">
+      <c r="D20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1667,10 +1649,10 @@
       <c r="C21" s="11">
         <v>10</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="21">
         <v>27</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1684,10 +1666,10 @@
       <c r="C22" s="11">
         <v>10</v>
       </c>
-      <c r="D22" s="25">
-        <v>54</v>
-      </c>
-      <c r="E22" s="25">
+      <c r="D22" s="21">
+        <v>54</v>
+      </c>
+      <c r="E22" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1701,10 +1683,10 @@
       <c r="C23" s="11">
         <v>10</v>
       </c>
-      <c r="D23" s="25">
-        <v>54</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="D23" s="21">
+        <v>54</v>
+      </c>
+      <c r="E23" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1718,10 +1700,10 @@
       <c r="C24" s="11">
         <v>7</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="25">
+      <c r="D24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1735,10 +1717,10 @@
       <c r="C25" s="11">
         <v>10</v>
       </c>
-      <c r="D25" s="25">
-        <v>54</v>
-      </c>
-      <c r="E25" s="25">
+      <c r="D25" s="21">
+        <v>54</v>
+      </c>
+      <c r="E25" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1752,10 +1734,10 @@
       <c r="C26" s="11">
         <v>10</v>
       </c>
-      <c r="D26" s="25">
-        <v>54</v>
-      </c>
-      <c r="E26" s="25">
+      <c r="D26" s="21">
+        <v>54</v>
+      </c>
+      <c r="E26" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1769,10 +1751,10 @@
       <c r="C27" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="26" t="s">
+      <c r="D27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1786,10 +1768,10 @@
       <c r="C28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="26" t="s">
+      <c r="D28" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1803,10 +1785,10 @@
       <c r="C29" s="11">
         <v>10</v>
       </c>
-      <c r="D29" s="25">
-        <v>54</v>
-      </c>
-      <c r="E29" s="25">
+      <c r="D29" s="21">
+        <v>54</v>
+      </c>
+      <c r="E29" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1820,10 +1802,10 @@
       <c r="C30" s="11">
         <v>10</v>
       </c>
-      <c r="D30" s="25">
-        <v>54</v>
-      </c>
-      <c r="E30" s="25">
+      <c r="D30" s="21">
+        <v>54</v>
+      </c>
+      <c r="E30" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1837,25 +1819,29 @@
       <c r="C31" s="11">
         <v>10</v>
       </c>
-      <c r="D31" s="25">
-        <v>54</v>
-      </c>
-      <c r="E31" s="25">
+      <c r="D31" s="21">
+        <v>54</v>
+      </c>
+      <c r="E31" s="21">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="9">
         <v>45016</v>
       </c>
-      <c r="B32" s="19">
-        <v>0</v>
-      </c>
-      <c r="C32" s="20">
-        <v>0</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="B32" s="10">
+        <v>2</v>
+      </c>
+      <c r="C32" s="11">
+        <v>10</v>
+      </c>
+      <c r="D32" s="21">
+        <v>54</v>
+      </c>
+      <c r="E32" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -1863,11 +1849,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1891,30 +1877,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="22">
+      <c r="B2" s="24"/>
+      <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="23">
+      <c r="B3" s="24"/>
+      <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34CE1B1-9A5C-4A59-AFF2-F21814856141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AF219B-F982-4BCA-B623-EB7E0E6D612E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
-    <sheet name="Relatorio" sheetId="5" r:id="rId4"/>
+    <sheet name="Abril" sheetId="6" r:id="rId4"/>
+    <sheet name="Relatorio" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -63,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,6 +196,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E33" sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
@@ -1867,6 +1889,341 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10B561B-BAEE-4189-B676-60215BBDE9CD}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J5:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>45017</v>
+      </c>
+      <c r="B2" s="10">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>17</v>
+      </c>
+      <c r="D2" s="21">
+        <v>54</v>
+      </c>
+      <c r="E2" s="21">
+        <v>54</v>
+      </c>
+      <c r="F2" s="29">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>45018</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>45019</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>45020</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>45021</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>45022</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>45023</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>45024</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>45025</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>45026</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>45027</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>45028</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>45029</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>45030</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>45031</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>45032</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>45033</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>45034</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>45035</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>45036</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>45037</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>45038</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>45039</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>45040</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>45041</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>45042</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>45043</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>45044</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>45045</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>45046</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="6">
+        <f>SUM(B2:B31)</f>
+        <v>3</v>
+      </c>
+      <c r="C32" s="7">
+        <f>SUM(C2:C31)</f>
+        <v>17</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AF219B-F982-4BCA-B623-EB7E0E6D612E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF90F4-A21E-40B2-B67F-3321968853A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,12 +191,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -211,6 +205,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,10 +1333,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="23"/>
+      <c r="D1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1893,7 +1893,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J5:J6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,10 +1914,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="23"/>
+      <c r="D1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1935,270 +1935,278 @@
       <c r="E2" s="21">
         <v>54</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="27">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="9">
         <v>45018</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21">
+        <v>54</v>
+      </c>
+      <c r="E3" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="23">
         <v>45019</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="23">
         <v>45020</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="23">
         <v>45021</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="23">
         <v>45022</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>45023</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <v>45024</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="23">
         <v>45025</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="23">
         <v>45026</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="23">
         <v>45027</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="23">
         <v>45028</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="23">
         <v>45029</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="23">
         <v>45030</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="23">
         <v>45031</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="23">
         <v>45032</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="23">
         <v>45033</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="23">
         <v>45034</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="23">
         <v>45035</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="23">
         <v>45036</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="23">
         <v>45037</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="23">
         <v>45038</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="23">
         <v>45039</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="23">
         <v>45040</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="23">
         <v>45041</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="23">
         <v>45042</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="23">
         <v>45043</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>45044</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="23">
         <v>45045</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="23">
         <v>45046</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2206,11 +2214,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2234,27 +2242,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>531</v>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF90F4-A21E-40B2-B67F-3321968853A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B516FC34-0FD8-4459-9658-780C20AA9171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1893,7 +1893,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,13 +1957,21 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="9">
         <v>45019</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="21">
+        <v>54</v>
+      </c>
+      <c r="E4" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
@@ -2214,11 +2222,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B516FC34-0FD8-4459-9658-780C20AA9171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA310390-8020-4D25-8A4D-C9885C6E0CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1893,7 +1893,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:E4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,49 +1974,89 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="9">
         <v>45020</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" s="21">
+        <v>54</v>
+      </c>
+      <c r="E5" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="9">
         <v>45021</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="21">
+        <v>54</v>
+      </c>
+      <c r="E6" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="9">
         <v>45022</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="21">
+        <v>54</v>
+      </c>
+      <c r="E7" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="9">
         <v>45023</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="21">
+        <v>54</v>
+      </c>
+      <c r="E8" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="9">
         <v>45024</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>10</v>
+      </c>
+      <c r="D9" s="21">
+        <v>54</v>
+      </c>
+      <c r="E9" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
@@ -2222,11 +2262,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA310390-8020-4D25-8A4D-C9885C6E0CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841CF4B2-E0CB-4CF7-922F-1DBAF3815B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1893,7 +1893,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,13 +2059,24 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="9">
         <v>45025</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>17</v>
+      </c>
+      <c r="D10" s="21">
+        <v>54</v>
+      </c>
+      <c r="E10" s="21">
+        <v>54</v>
+      </c>
+      <c r="F10" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
@@ -2262,11 +2273,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841CF4B2-E0CB-4CF7-922F-1DBAF3815B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5BBA6D-6AE7-4FC0-8260-F9330B9C4D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1893,7 +1893,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,13 +2079,24 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="9">
         <v>45026</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="10">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11">
+        <v>17</v>
+      </c>
+      <c r="D11" s="21">
+        <v>54</v>
+      </c>
+      <c r="E11" s="21">
+        <v>54</v>
+      </c>
+      <c r="F11" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
@@ -2273,11 +2284,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5BBA6D-6AE7-4FC0-8260-F9330B9C4D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9178BF84-847B-4215-BD19-4A574254A9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1893,7 +1893,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,13 +2099,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="9">
         <v>45027</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11">
+        <v>10</v>
+      </c>
+      <c r="D12" s="21">
+        <v>54</v>
+      </c>
+      <c r="E12" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
@@ -2284,11 +2292,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9178BF84-847B-4215-BD19-4A574254A9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCBFE15-AA2E-4346-8A3B-9606BCE8F74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,9 +194,6 @@
     <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,6 +209,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1333,10 +1340,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1892,14 +1899,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10B561B-BAEE-4189-B676-60215BBDE9CD}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="32" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
@@ -1908,22 +1915,22 @@
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>45017</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="30">
         <v>3</v>
       </c>
       <c r="C2" s="11">
@@ -1935,7 +1942,7 @@
       <c r="E2" s="21">
         <v>54</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1943,7 +1950,7 @@
       <c r="A3" s="9">
         <v>45018</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="30">
         <v>2</v>
       </c>
       <c r="C3" s="11">
@@ -1960,7 +1967,7 @@
       <c r="A4" s="9">
         <v>45019</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="30">
         <v>2</v>
       </c>
       <c r="C4" s="11">
@@ -1977,7 +1984,7 @@
       <c r="A5" s="9">
         <v>45020</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="30">
         <v>2</v>
       </c>
       <c r="C5" s="11">
@@ -1994,7 +2001,7 @@
       <c r="A6" s="9">
         <v>45021</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="30">
         <v>2</v>
       </c>
       <c r="C6" s="11">
@@ -2011,7 +2018,7 @@
       <c r="A7" s="9">
         <v>45022</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="30">
         <v>2</v>
       </c>
       <c r="C7" s="11">
@@ -2028,7 +2035,7 @@
       <c r="A8" s="9">
         <v>45023</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="30">
         <v>2</v>
       </c>
       <c r="C8" s="11">
@@ -2045,7 +2052,7 @@
       <c r="A9" s="9">
         <v>45024</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="30">
         <v>2</v>
       </c>
       <c r="C9" s="11">
@@ -2062,7 +2069,7 @@
       <c r="A10" s="9">
         <v>45025</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="30">
         <v>3</v>
       </c>
       <c r="C10" s="11">
@@ -2082,7 +2089,7 @@
       <c r="A11" s="9">
         <v>45026</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="30">
         <v>3</v>
       </c>
       <c r="C11" s="11">
@@ -2102,7 +2109,7 @@
       <c r="A12" s="9">
         <v>45027</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="30">
         <v>2</v>
       </c>
       <c r="C12" s="11">
@@ -2116,187 +2123,195 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="9">
         <v>45028</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="30">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>10</v>
+      </c>
+      <c r="D13" s="21">
+        <v>54</v>
+      </c>
+      <c r="E13" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>45029</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>45030</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>45031</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>45032</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>45033</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>45034</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>45035</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>45036</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>45037</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>45038</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>45039</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>45040</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>45041</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>45042</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>45043</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>45044</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>45045</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>45046</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="29">
         <f>SUM(B2:B31)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2306,6 +2321,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2320,27 +2336,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>531</v>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCBFE15-AA2E-4346-8A3B-9606BCE8F74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0DE01B-1CD1-4E6F-A651-6B49F1839607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -129,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,16 +209,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1318,7 +1308,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="A1:E33"/>
+      <selection activeCell="B28" sqref="B28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,14 +1889,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10B561B-BAEE-4189-B676-60215BBDE9CD}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
@@ -1915,7 +1905,7 @@
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -1930,7 +1920,7 @@
       <c r="A2" s="9">
         <v>45017</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="21">
         <v>3</v>
       </c>
       <c r="C2" s="11">
@@ -1950,7 +1940,7 @@
       <c r="A3" s="9">
         <v>45018</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="21">
         <v>2</v>
       </c>
       <c r="C3" s="11">
@@ -1967,7 +1957,7 @@
       <c r="A4" s="9">
         <v>45019</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="21">
         <v>2</v>
       </c>
       <c r="C4" s="11">
@@ -1984,7 +1974,7 @@
       <c r="A5" s="9">
         <v>45020</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="21">
         <v>2</v>
       </c>
       <c r="C5" s="11">
@@ -2001,7 +1991,7 @@
       <c r="A6" s="9">
         <v>45021</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="21">
         <v>2</v>
       </c>
       <c r="C6" s="11">
@@ -2018,7 +2008,7 @@
       <c r="A7" s="9">
         <v>45022</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="21">
         <v>2</v>
       </c>
       <c r="C7" s="11">
@@ -2035,7 +2025,7 @@
       <c r="A8" s="9">
         <v>45023</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="21">
         <v>2</v>
       </c>
       <c r="C8" s="11">
@@ -2052,7 +2042,7 @@
       <c r="A9" s="9">
         <v>45024</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="21">
         <v>2</v>
       </c>
       <c r="C9" s="11">
@@ -2069,7 +2059,7 @@
       <c r="A10" s="9">
         <v>45025</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="21">
         <v>3</v>
       </c>
       <c r="C10" s="11">
@@ -2089,7 +2079,7 @@
       <c r="A11" s="9">
         <v>45026</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="21">
         <v>3</v>
       </c>
       <c r="C11" s="11">
@@ -2109,7 +2099,7 @@
       <c r="A12" s="9">
         <v>45027</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="21">
         <v>2</v>
       </c>
       <c r="C12" s="11">
@@ -2126,7 +2116,7 @@
       <c r="A13" s="9">
         <v>45028</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="21">
         <v>2</v>
       </c>
       <c r="C13" s="11">
@@ -2140,19 +2130,27 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="12">
         <v>45029</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="B14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>45030</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -2161,7 +2159,7 @@
       <c r="A16" s="23">
         <v>45031</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -2170,7 +2168,7 @@
       <c r="A17" s="23">
         <v>45032</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -2179,7 +2177,7 @@
       <c r="A18" s="23">
         <v>45033</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -2188,7 +2186,7 @@
       <c r="A19" s="23">
         <v>45034</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -2197,7 +2195,7 @@
       <c r="A20" s="23">
         <v>45035</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="24"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -2206,7 +2204,7 @@
       <c r="A21" s="23">
         <v>45036</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -2215,7 +2213,7 @@
       <c r="A22" s="23">
         <v>45037</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -2224,7 +2222,7 @@
       <c r="A23" s="23">
         <v>45038</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -2233,7 +2231,7 @@
       <c r="A24" s="23">
         <v>45039</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="24"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -2242,7 +2240,7 @@
       <c r="A25" s="23">
         <v>45040</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="24"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -2251,7 +2249,7 @@
       <c r="A26" s="23">
         <v>45041</v>
       </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="24"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -2260,7 +2258,7 @@
       <c r="A27" s="23">
         <v>45042</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="24"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -2269,7 +2267,7 @@
       <c r="A28" s="23">
         <v>45043</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="24"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -2278,7 +2276,7 @@
       <c r="A29" s="23">
         <v>45044</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="24"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -2287,7 +2285,7 @@
       <c r="A30" s="23">
         <v>45045</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="24"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -2296,7 +2294,7 @@
       <c r="A31" s="23">
         <v>45046</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="24"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -2305,7 +2303,7 @@
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
         <v>27</v>
       </c>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0DE01B-1CD1-4E6F-A651-6B49F1839607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E7CC84-E975-4367-A297-E4BE99EA7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +101,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,6 +213,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1890,7 +1905,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2147,13 +2162,21 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="29">
         <v>45030</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="30">
+        <v>2</v>
+      </c>
+      <c r="C15" s="31">
+        <v>10</v>
+      </c>
+      <c r="D15" s="30">
+        <v>54</v>
+      </c>
+      <c r="E15" s="30">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
@@ -2305,11 +2328,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/ARQUIVO CRIS.xlsx
+++ b/ARQUIVO CRIS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E7CC84-E975-4367-A297-E4BE99EA7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF745E1C-2C98-40A2-9855-05F9E34CDFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,19 +209,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1345,10 +1345,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1905,7 +1905,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,10 +1926,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2162,30 +2162,38 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="27">
         <v>45030</v>
       </c>
-      <c r="B15" s="30">
-        <v>2</v>
-      </c>
-      <c r="C15" s="31">
-        <v>10</v>
-      </c>
-      <c r="D15" s="30">
-        <v>54</v>
-      </c>
-      <c r="E15" s="30">
+      <c r="B15" s="28">
+        <v>2</v>
+      </c>
+      <c r="C15" s="29">
+        <v>10</v>
+      </c>
+      <c r="D15" s="28">
+        <v>54</v>
+      </c>
+      <c r="E15" s="28">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="27">
         <v>45031</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="28">
+        <v>2</v>
+      </c>
+      <c r="C16" s="29">
+        <v>10</v>
+      </c>
+      <c r="D16" s="28">
+        <v>54</v>
+      </c>
+      <c r="E16" s="28">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
@@ -2328,11 +2336,11 @@
       </c>
       <c r="B32" s="5">
         <f>SUM(B2:B31)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2357,27 +2365,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>531</v>
